--- a/NSOT/golden_states/R4.xlsx
+++ b/NSOT/golden_states/R4.xlsx
@@ -615,7 +615,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>172.20.20.3/24</t>
+          <t>172.20.20.4/24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>192.168.0.1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -920,29 +920,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL/BDR</t>
+          <t>FULL/DROTHER</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>10.0.101.1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ethernet1.50</t>
+          <t>Ethernet1.100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192.168.0.1</t>
+          <t>10.0.10.2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -967,17 +967,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.0.101.1</t>
+          <t>192.168.0.2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ethernet1.100</t>
+          <t>Ethernet1.50</t>
         </is>
       </c>
     </row>
@@ -1004,29 +1004,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL/DROTHER</t>
+          <t>FULL/BDR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.0.101.3</t>
+          <t>192.168.0.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ethernet1.100</t>
+          <t>Ethernet1.50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>192.168.0.2</t>
+          <t>192.168.0.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1046,22 +1046,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL/BDR</t>
+          <t>FULL/DROTHER</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:00:34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.0.101.2</t>
+          <t>192.168.0.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ethernet1.100</t>
+          <t>Ethernet1.50</t>
         </is>
       </c>
     </row>
